--- a/medicine/Enfance/Éva_Heyman/Éva_Heyman.xlsx
+++ b/medicine/Enfance/Éva_Heyman/Éva_Heyman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89va_Heyman</t>
+          <t>Éva_Heyman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éva Heyman, née le 13 février 1931 à Oradea en Royaume de Roumanie, morte le 17 octobre 1944 à  Auschwitz-Birkenau, est une adolescente de treize ans qui a écrit, telle Anne Frank, un court journal dans le Ghetto d'Oradea (ville rattachée en 1940 à la Hongrie à la suite du deuxième arbitrage de Vienne) avant d'être déportée en 1944 au camp de concentration d'Auschwitz et de devenir une victime de la Shoah[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éva Heyman, née le 13 février 1931 à Oradea en Royaume de Roumanie, morte le 17 octobre 1944 à  Auschwitz-Birkenau, est une adolescente de treize ans qui a écrit, telle Anne Frank, un court journal dans le Ghetto d'Oradea (ville rattachée en 1940 à la Hongrie à la suite du deuxième arbitrage de Vienne) avant d'être déportée en 1944 au camp de concentration d'Auschwitz et de devenir une victime de la Shoah.
 À son retour après la guerre, la mère d'Éva a récupéré le journal, qui a été publié à Budapest en 1948. Par la suite, il a été traduit dans d'autres langues, notamment en anglais. Éva a été surnommée l’Anne Frank transylvaine, l’Anne Frank d'Oradea ou l’Anne Frank de Nagyvárad[Par qui ?].
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89va_Heyman</t>
+          <t>Éva_Heyman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contexte
-Éva est née en 1931 à Oradea, en Transylvanie, région qui s'était unie à la Roumanie en décembre 1918 à la suite de la dislocation de l'Empire austro-hongrois, ce qui avait été officialisé en 1920 par le Traité de Trianon. Ses parents, Juifs hongrois, Ágnes (Agi) Rácz et Béla Heyman, divorcent en 1933. Sa mère se remarie avec l'écrivain Béla Zsolt et déménage à Budapest, tandis qu'Éva vit chez ses grands-parents maternels d'Oradea qui sont propriétaires d'une pharmacie. Son père, l'architecte Bela Heyman, habite de l'autre côté de la ville et ne la voit que de façon sporadique. 
-Justine, la gouvernante autrichienne et chrétienne qui avait pris soin de sa mère, s'occupe désormais d'Éva. Dans la maison de ses grands-parents vit également Mariska Szábo, une cuisinière chrétienne qui a sauvé et gardé le journal d'Éva après son expulsion du ghetto[2],[3].
-Le gouvernement hongrois de Miklós Horthy prend des mesures discriminatoires à l'encontre des Juifs[4] (par exemple, les autorités confisquent à Éva son vélo rouge qu'elle aimait tant, car interdiction est faite aux Juifs d'en posséder) mais jusqu'en 1944 ils échappent à la déportation en Allemagne nazie. Éva se console en pensant que sa famille a conservé la chose la plus précieuse, la vie. Au printemps 1944, à mesure que l'Armée rouge soviétique avance vers la Hongrie, les autorités hongroises, pour donner des gages aux nazis, durcissent leur politique antisémite et regroupent les Juifs en ghettos, tandis que Horthy tente des contacts informels avec les Alliés, ce qui lui vaut d'être remplacé en octobre par Ferenc Szálasi qui n'a rien à refuser aux nazis : la Wehrmacht entre alors en Hongrie lors de l'Opération Margarethe.
-Le journal d'Éva : « Je veux vivre ! »
-« J'ai 13 ans. Je suis née un vendredi treize », ainsi Éva commence-t-elle son journal le 13 février 1944[5],[6].
+          <t>Contexte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éva est née en 1931 à Oradea, en Transylvanie, région qui s'était unie à la Roumanie en décembre 1918 à la suite de la dislocation de l'Empire austro-hongrois, ce qui avait été officialisé en 1920 par le Traité de Trianon. Ses parents, Juifs hongrois, Ágnes (Agi) Rácz et Béla Heyman, divorcent en 1933. Sa mère se remarie avec l'écrivain Béla Zsolt et déménage à Budapest, tandis qu'Éva vit chez ses grands-parents maternels d'Oradea qui sont propriétaires d'une pharmacie. Son père, l'architecte Bela Heyman, habite de l'autre côté de la ville et ne la voit que de façon sporadique. 
+Justine, la gouvernante autrichienne et chrétienne qui avait pris soin de sa mère, s'occupe désormais d'Éva. Dans la maison de ses grands-parents vit également Mariska Szábo, une cuisinière chrétienne qui a sauvé et gardé le journal d'Éva après son expulsion du ghetto,.
+Le gouvernement hongrois de Miklós Horthy prend des mesures discriminatoires à l'encontre des Juifs (par exemple, les autorités confisquent à Éva son vélo rouge qu'elle aimait tant, car interdiction est faite aux Juifs d'en posséder) mais jusqu'en 1944 ils échappent à la déportation en Allemagne nazie. Éva se console en pensant que sa famille a conservé la chose la plus précieuse, la vie. Au printemps 1944, à mesure que l'Armée rouge soviétique avance vers la Hongrie, les autorités hongroises, pour donner des gages aux nazis, durcissent leur politique antisémite et regroupent les Juifs en ghettos, tandis que Horthy tente des contacts informels avec les Alliés, ce qui lui vaut d'être remplacé en octobre par Ferenc Szálasi qui n'a rien à refuser aux nazis : la Wehrmacht entre alors en Hongrie lors de l'Opération Margarethe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éva_Heyman</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89va_Heyman</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le journal d'Éva : « Je veux vivre ! »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« J'ai 13 ans. Je suis née un vendredi treize », ainsi Éva commence-t-elle son journal le 13 février 1944,.
 Le 1er mai, elle raconte les préparatifs avant l'emménagement forcé dans l'un des deux ghettos de Nagyvárad : 
 « Nous avons tous commencé à emballer, mais uniquement des objets et uniquement ceux autorisés comme l'a lu Agi (sa mère, n.r.) sur les pancartes. Je sais que ce n'est pas un rêve, et pourtant je ne peux pas croire que c'est vrai. Nous pouvons emporter des draps de lit, mais ne sachant pas quand ils vont venir nous déporter, ils restent toujours dehors. [...]
 Mon petit Journal ! Je n'ai jamais eu aussi peur ! »
@@ -535,41 +587,81 @@
 Le gendarme a dit qu'il ne pouvait pas comprendre les Juifs. Ils ne se lamentent pas, pas même les enfants ; ils se déplacent comme des somnambules ; comme s'ils ne vivaient plus. Ils sont montés dans les voitures pétrifiés, sans prononcer un mot. »
 Éva finit son journal en s'exclamant : 
 « Malgré tout, mon Petit Journal, je ne veux pas mourir, je veux vivre, même si j'étais la seule du secteur à pouvoir rester ici. J'attendrai la fin de la guerre dans une cave ou dans un grenier, ou dans n'importe quel trou ; moi, mon petit Journal, je me laisserai même embrasser par le gendarme qui louche et qui a pris notre farine, pourvu qu'il ne me tue pas, qu'il me laisse vivre. »
-Lorsque la cuisinière Mariska pénètre dans le ghetto pour leur apporter de la nourriture, elle reçoit le journal d'Éva et le met en sécurité jusqu'à l'après-guerre[7].
-La déportation à Auschwitz
-Le 3 juin 1944, Éva et ses grands-parents sont déportés à Auschwitz dans un des wagons à bestiaux du dernier train de déportés de Nagyvárad. Les grands-parents sont immédiatement envoyés à la chambre à gaz, tandis qu'Éva est sélectionnée par le Dr Mengele pour être l'objet d'expériences humaines. Mengele découvre qu'elle a les pieds gonflés, probablement parce qu'elle avait contracté le typhus ou la gale, et l'envoie à la chambre à gaz où elle est tuée le 17 octobre 1944, à l'âge de treize ans[8].
+Lorsque la cuisinière Mariska pénètre dans le ghetto pour leur apporter de la nourriture, elle reçoit le journal d'Éva et le met en sécurité jusqu'à l'après-guerre.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89va_Heyman</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éva_Heyman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89va_Heyman</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La déportation à Auschwitz</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3 juin 1944, Éva et ses grands-parents sont déportés à Auschwitz dans un des wagons à bestiaux du dernier train de déportés de Nagyvárad. Les grands-parents sont immédiatement envoyés à la chambre à gaz, tandis qu'Éva est sélectionnée par le Dr Mengele pour être l'objet d'expériences humaines. Mengele découvre qu'elle a les pieds gonflés, probablement parce qu'elle avait contracté le typhus ou la gale, et l'envoie à la chambre à gaz où elle est tuée le 17 octobre 1944, à l'âge de treize ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éva_Heyman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89va_Heyman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Les survivants de la famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'autres traductions
-(he) Yehouda Marton (EDS.): Yomanah shel Eṿah Haiman. Le Mémorial de Yad Vashem, Jérusalem, 1964.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D'autres traductions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(he) Yehouda Marton (EDS.): Yomanah shel Eṿah Haiman. Le Mémorial de Yad Vashem, Jérusalem, 1964.
 "La version hébraïque a été publié en 1964 à Jérusalem. Marton décrit l'histoire des juifs à Oradea avec les aspects de la vie sociale et culturelle, parle d'Éva et de sa famille et de l'atmosphère dans laquelle le Journal a été écrit, dans une présentation de douze pages. En outre, Marton a ajouté des notes dans le texte, ce qui explique des concepts étrangers au lecteur en hébreu."
 Le journal d'Éva Heyman. Introduction et notes par Juda Marton. Traduit de l'hébreu en anglais par Moshe M. Kohn. Le Mémorial de Yad Vashem, Jérusalem, 1974.
 Le Journal d'Eva Heyman : enfant de l'Holocauste. Shapolsky Publishers, New York, 1987,  (ISBN 0-933503-89-X).
@@ -580,39 +672,41 @@
 Jacob Boas, dans la traduction en néerlandais: Eva, David, Moshe, Yitschak fr Anne: oorlogsdagboeken van joodse kinderen.
 Jacob Boas dans la traduction en russe : Mon svideteli : dnevniki piati podrostkov, jertv kholokosta. Optimale, Kiev, 2001,  (ISBN 966-7869-05-9).
 Extrait de Laurier Holliday: les Enfants dans la Shoah et la seconde Guerre Mondiale : leurs journaux secrets Livres de Poche, New York 1995. [Année anthologie de vingt-trois journaux intimes écrits au cours de l'Holocauste par les enfants, dont certains ont ensuite été assassinés par les nazis]
-J'ai vécu si peu : Journal du ghetto d'Oradea, préface de Carol Iancu, traduction française de Jean-Léon Muller, Éditions des Syrtes[9], 15 mai 2013,  (ISBN 978-2940523009)</t>
+J'ai vécu si peu : Journal du ghetto d'Oradea, préface de Carol Iancu, traduction française de Jean-Léon Muller, Éditions des Syrtes, 15 mai 2013,  (ISBN 978-2940523009)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89va_Heyman</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éva_Heyman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89va_Heyman</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Commémoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'Université d'Oradea compte un Centre de Recherches de l'histoire des Juifs en Roumanie nommé “Eva Heyman” depuis 2012.
-Éva Heyman, l'Anne Frank transylvaine est une tragédie du dramaturge et avocat Pașcu Balaci jouée au théâtre[10].
-Une statue et des panneaux explicatifs ont été inaugurés en 2015 dans le parc Nicolae Bălcescu d'Oradea, d'où ont été déportés vers Auschwitz par trains de marchandises environ 3.000 juifs entre le 24 mai et le 3 juin 1944[11].</t>
+Éva Heyman, l'Anne Frank transylvaine est une tragédie du dramaturge et avocat Pașcu Balaci jouée au théâtre.
+Une statue et des panneaux explicatifs ont été inaugurés en 2015 dans le parc Nicolae Bălcescu d'Oradea, d'où ont été déportés vers Auschwitz par trains de marchandises environ 3.000 juifs entre le 24 mai et le 3 juin 1944.</t>
         </is>
       </c>
     </row>
